--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726996.2880944918</v>
+        <v>-729531.2589703467</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>189.2395865667825</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>49.86843706432933</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734071385</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>12.19089450395174</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>63.59665248538114</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>71.16124876855235</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>266.4185587069383</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>109.6870817625068</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.7931042059038</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>12.67271739420394</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>190.4666355843596</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>71.62574039664889</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>2.4886342841992</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>96.53479487365081</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>135.0353110735031</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238212</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>111.5512144998792</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784708</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>52.54490042791015</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>77.12517954596439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>59.44001103519191</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>250.9728823639259</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>26.1362719570585</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>184.6527153981528</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>180.2794366746835</v>
+        <v>134.3542165280282</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>43.73846614325492</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545302</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652696</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1381.278680221567</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="C2" t="n">
-        <v>1012.316163281155</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D2" t="n">
-        <v>1012.316163281155</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E2" t="n">
-        <v>1012.316163281155</v>
+        <v>817.0785203735552</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3275.233662958332</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3275.233662958332</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3021.703186232168</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2690.640298888597</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.48361052258</v>
+        <v>2337.871643618483</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.017852261501</v>
+        <v>2337.871643618483</v>
       </c>
       <c r="Y2" t="n">
-        <v>1767.878520285689</v>
+        <v>1947.732311642672</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686085</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080139</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>608.7574741064773</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="C4" t="n">
-        <v>608.7574741064773</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1914.980513236015</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1914.980513236015</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1693.213897805541</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1628.974854891015</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046018</v>
+        <v>1374.290366685128</v>
       </c>
       <c r="W4" t="n">
-        <v>680.6375233676413</v>
+        <v>1084.873196648167</v>
       </c>
       <c r="X4" t="n">
-        <v>608.7574741064773</v>
+        <v>856.8836457501499</v>
       </c>
       <c r="Y4" t="n">
-        <v>608.7574741064773</v>
+        <v>856.8836457501499</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1870.65619074133</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1501.693673800919</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>1143.427975194168</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>757.639722595924</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>346.6538178063165</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G5" t="n">
-        <v>335.621771691717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805452</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y5" t="n">
-        <v>2257.256030805452</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>482.8906159540807</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9544330261738</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1148.939852937165</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732712</v>
+        <v>920.9503020391476</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.3078929297411</v>
+        <v>700.1577228956174</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.708680670284</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.746163729873</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3253.256588885283</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3047.278841269505</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734406</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,19 +4884,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>462.6853918125577</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="C10" t="n">
-        <v>462.6853918125577</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>312.5687524002219</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4990,22 +4990,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1829.784654276724</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1540.681787402368</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1285.997299196481</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408147</v>
+        <v>996.5801291595203</v>
       </c>
       <c r="X10" t="n">
-        <v>644.3338566427974</v>
+        <v>996.5801291595203</v>
       </c>
       <c r="Y10" t="n">
-        <v>644.3338566427974</v>
+        <v>775.7875500159902</v>
       </c>
     </row>
     <row r="11">
@@ -5033,13 +5033,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5057,31 +5057,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2243.518075718013</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2023.916610740955</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>2023.916610740955</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535068</v>
+        <v>1903.203368718579</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1613.786198681618</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5294,34 +5294,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>984.5467179762953</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>815.6105350483884</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>665.4938956360527</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>517.5808020536596</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>370.6908545557492</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>1166.195182806535</v>
       </c>
     </row>
     <row r="17">
@@ -5507,40 +5507,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851653</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572584</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D19" t="n">
-        <v>377.6556127449227</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E19" t="n">
-        <v>377.6556127449227</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832661</v>
+        <v>2264.108249235169</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855602</v>
+        <v>2044.50678425811</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.2406881998</v>
+        <v>1755.431557602308</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993913</v>
+        <v>1501.923595618545</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956953</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058935</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154051</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,58 +5744,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5841,10 +5841,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2420.562808876161</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>2131.487582220359</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1876.803094014472</v>
+        <v>1788.515128237794</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>551.354624631591</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C28" t="n">
-        <v>382.4184417036842</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>382.4184417036842</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2014.962104402028</v>
+        <v>2311.25175375397</v>
       </c>
       <c r="U28" t="n">
-        <v>1725.886877746226</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V28" t="n">
-        <v>1471.202389540339</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W28" t="n">
-        <v>1181.785219503378</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X28" t="n">
-        <v>953.7956686053609</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y28" t="n">
-        <v>733.0030894618308</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>719.5738700011939</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2402.78281474869</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2183.181349771631</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1894.106123115829</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1639.421634909942</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1350.004464872981</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1122.014913974964</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>901.2223348314336</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7160,28 +7160,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150035</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942666</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580125</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345487</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384031</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="41">
@@ -7406,19 +7406,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384022</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,16 +7591,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.738725912720952e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>217.636459174929</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>59.31932472384654</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>28.48231710493129</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>76.74125816609563</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>154.5484066204848</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>45.99097492814153</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>114.158440889158</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-1.715617043683746e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>112.9792378643587</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012319</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>141.4594738061304</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>85.98103698773934</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.164760959902054</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>191.2691783702298</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>67.48492792567515</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>37.12601365260474</v>
+        <v>83.05123379926005</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>137.2878198583897</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.654232434377241e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-1.179500941361766e-12</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1014009.293240015</v>
+        <v>1014009.293240014</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1182561.448850755</v>
+        <v>1182561.448850756</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1182561.448850756</v>
+        <v>1182561.448850755</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1182561.448850755</v>
+        <v>1182561.448850756</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1182561.448850755</v>
+        <v>1182561.448850756</v>
       </c>
     </row>
     <row r="13">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254693</v>
+        <v>207271.1201254691</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="D2" t="n">
         <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.979907002</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="G2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
         <v>242143.9799070018</v>
@@ -26347,10 +26347,10 @@
         <v>246312.5309592847</v>
       </c>
       <c r="N2" t="n">
+        <v>246312.5309592847</v>
+      </c>
+      <c r="O2" t="n">
         <v>246312.530959285</v>
-      </c>
-      <c r="O2" t="n">
-        <v>246312.5309592849</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104482.7459291436</v>
+        <v>104482.7459291437</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17905.39262593869</v>
+        <v>17905.39262593847</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818182</v>
       </c>
       <c r="D4" t="n">
         <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
+        <v>12996.8641468305</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12996.8641468305</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12996.8641468305</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12996.86414683049</v>
+      </c>
+      <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="F4" t="n">
-        <v>12996.86414683044</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12996.86414683044</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12996.86414683044</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12996.86414683045</v>
-      </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
+        <v>20987.72340992391</v>
+      </c>
+      <c r="N4" t="n">
+        <v>20987.72340992392</v>
+      </c>
+      <c r="O4" t="n">
         <v>20987.7234099239</v>
       </c>
-      <c r="N4" t="n">
-        <v>20987.7234099239</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20987.72340992393</v>
-      </c>
       <c r="P4" t="n">
-        <v>20987.7234099239</v>
+        <v>20987.72340992391</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1247312.958789455</v>
+        <v>-1247638.303879736</v>
       </c>
       <c r="C6" t="n">
-        <v>46194.69147971002</v>
+        <v>46194.69147970976</v>
       </c>
       <c r="D6" t="n">
-        <v>46194.69147970999</v>
+        <v>46194.6914797098</v>
       </c>
       <c r="E6" t="n">
-        <v>-197387.8758710909</v>
+        <v>-197422.6137965268</v>
       </c>
       <c r="F6" t="n">
-        <v>128024.5859362642</v>
+        <v>127989.8480108286</v>
       </c>
       <c r="G6" t="n">
-        <v>128024.5859362643</v>
+        <v>127989.8480108285</v>
       </c>
       <c r="H6" t="n">
-        <v>128024.5859362644</v>
+        <v>127989.8480108285</v>
       </c>
       <c r="I6" t="n">
-        <v>128024.5859362643</v>
+        <v>127989.8480108286</v>
       </c>
       <c r="J6" t="n">
-        <v>-89506.61646101321</v>
+        <v>-89541.35438644895</v>
       </c>
       <c r="K6" t="n">
-        <v>128024.5859362643</v>
+        <v>127989.8480108286</v>
       </c>
       <c r="L6" t="n">
-        <v>128024.5859362643</v>
+        <v>127989.8480108288</v>
       </c>
       <c r="M6" t="n">
-        <v>17677.94576630188</v>
+        <v>17677.94576630174</v>
       </c>
       <c r="N6" t="n">
+        <v>122160.6916954453</v>
+      </c>
+      <c r="O6" t="n">
         <v>122160.6916954457</v>
       </c>
-      <c r="O6" t="n">
-        <v>122160.6916954456</v>
-      </c>
       <c r="P6" t="n">
-        <v>122160.6916954457</v>
+        <v>122160.6916954458</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>116.2726978093895</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>222.6151857202318</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>28.1892056803822</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>141.3080901963952</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.03887597603347</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>273.8502809423871</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>164.2164060363233</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>37.56202139152694</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,13 +28017,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>143.94532836237</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>123.0141544025184</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>6.81853682583577e-12</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.487406060387629e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-1.885306725550132e-12</v>
+        <v>3.990576737510571e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-2.834409677975332e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>163.5723821283055</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154042</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32552,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>687.0167715190038</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>25.73094315394657</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066231</v>
+        <v>295.631773306629</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>544.4205270745593</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
